--- a/Component_List.xlsx
+++ b/Component_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Optimus-Primary-Winding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmetcan.akuz\Documents\GitHub\Optimus-Primary-Winding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEABE4E7-DD68-448A-8511-DC815AF2671D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7C4280-ECE2-4896-956A-BCD58A30AB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
+    <workbookView xWindow="-23148" yWindow="11364" windowWidth="23256" windowHeight="13896" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Component</t>
   </si>
@@ -49,15 +49,46 @@
   <si>
     <t>Qty.</t>
   </si>
+  <si>
+    <t>E42/21/20-3C94</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/ferroxcube/E42-21-20-3C94/7041500</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>FERRITE CORE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -72,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -95,18 +126,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -209,12 +296,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B831FA0-2FF9-4170-BC4D-1B3E0F7BB767}" name="Table1" displayName="Table1" ref="A1:D10" totalsRowShown="0">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4DB572EA-B97E-43B7-8E61-6CC55990BA4F}" name="Component" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{03E7016A-1F49-4A13-8941-D150A9A2F6CF}" name="Price" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{E8BBB6D5-A271-4EE5-9E12-10517E2AAB57}" name="Link" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{93423F97-D63E-476A-A983-A21D9463CE0C}" name="Qty." dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B831FA0-2FF9-4170-BC4D-1B3E0F7BB767}" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4DB572EA-B97E-43B7-8E61-6CC55990BA4F}" name="Component" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{03E7016A-1F49-4A13-8941-D150A9A2F6CF}" name="Price" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E8BBB6D5-A271-4EE5-9E12-10517E2AAB57}" name="Link" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{93423F97-D63E-476A-A983-A21D9463CE0C}" name="Qty." dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{AE2A6183-B4A1-42B1-9128-E2071196A4B4}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -517,21 +605,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E520E67-1D27-4A68-9886-D4EF86CBEAFA}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.77734375" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,65 +633,105 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B2B197F7-B723-4767-8FE3-BB13551641B6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="0399a3f6-84a2-44f7-8781-b1ee60ec893b" origin="userSelected"/>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE980F8-1179-47A2-8A73-7F8907EE3048}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Component_List.xlsx
+++ b/Component_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmetcan.akuz\Documents\GitHub\Optimus-Primary-Winding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Optimus-Primary-Winding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7C4280-ECE2-4896-956A-BCD58A30AB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FB066D-0CF7-435E-AACA-EE00A53F7632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="11364" windowWidth="23256" windowHeight="13896" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Component</t>
   </si>
@@ -60,6 +60,89 @@
   </si>
   <si>
     <t>FERRITE CORE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Caps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 1u x3 (25V for input x1)
+-1n x3
+-2n x1
+-330n(50V) x1
+-330p(150V) x1
+-47u or 68u (63V for output) x1</t>
+    </r>
+  </si>
+  <si>
+    <t>TL431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UC3842 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resistor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-480R (min 2W) x1
+-0.05R (5W sense)x1
+-10k x5 (x1 %1 tolerance for controller)
+-1k x1
+-600k x1
+-182k x1 (%1 tolerance)
+-14.3k x1
+-22.2k x2
+-10R x1
+-100R x1
+-4.7k x1
+-5k x1</t>
+    </r>
+  </si>
+  <si>
+    <t>30V Zener</t>
+  </si>
+  <si>
+    <t>15V Zener (Depending on max switch voltage)</t>
+  </si>
+  <si>
+    <t>2N2222 x2</t>
   </si>
 </sst>
 </file>
@@ -67,9 +150,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +177,15 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -157,13 +249,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -607,15 +702,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E520E67-1D27-4A68-9886-D4EF86CBEAFA}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.77734375" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="70.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
@@ -654,50 +749,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>

--- a/Component_List.xlsx
+++ b/Component_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Optimus-Primary-Winding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FB066D-0CF7-435E-AACA-EE00A53F7632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F925D8-F0DD-43B9-882F-5ACADC762B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Component</t>
   </si>
@@ -96,7 +96,85 @@
     <t>TL431</t>
   </si>
   <si>
-    <t xml:space="preserve">UC3842 </t>
+    <t>IC-4N25 OPTO 5300V TRANS.OUTPUT SMD6 LITEON</t>
+  </si>
+  <si>
+    <t>0,17620 USD</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/optolar-ve-sensorler/optolar/transistor-cikisli-optokuplorler/4N25S-TA1/434368</t>
+  </si>
+  <si>
+    <t>4N25 Optocoupler</t>
+  </si>
+  <si>
+    <t>https://www.direnc.net/2n2222-transistor-bjt-npn-to-92</t>
+  </si>
+  <si>
+    <t>2N2222 Transistör BJT TO-92 - NPN 6V 0.8A</t>
+  </si>
+  <si>
+    <t>0,99 TL</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIODE ZENER 300mW 15V SOD323 </t>
+  </si>
+  <si>
+    <t>15V Zener (Voltage depends on Vds)</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/guc-yari-iletkenleri/diyotlar-modul-diyotlar-ve-dogrultucular/zener-diyotlar/MM3Z15VT1G/625608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0,03367 USD</t>
+  </si>
+  <si>
+    <t>DIODE ZENER 500mW 30V ±5% SOD123 SMT</t>
+  </si>
+  <si>
+    <t>30V Zener (For Linear Regulator)</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/guc-yari-iletkenleri/diyotlar-modul-diyotlar-ve-dogrultucular/zener-diyotlar/MMSZ4713-VR100001/563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0,05405 USD</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/entegre-devreler-ics/guc-entegreleri/voltage-reference-entegreleri/TL431AIDBZR/341981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0,18929 USD</t>
+  </si>
+  <si>
+    <t>Precision Programmable Reference</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/entegre-devreler-ics/guc-entegreleri/dc-dc-voltaj-kontrolorleri/UC3843AD8TR/461759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC-3843 REG. CONTROLLER PWM CM SOIC8 </t>
+  </si>
+  <si>
+    <t>PWM Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,06870 USD </t>
+  </si>
+  <si>
+    <t>RES.SHUNT (6432) 2512 47m Ohms 1% 4W AUTO SMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0,80477 USD</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/pasif-komponentler/direncler/hassas-ve-sont-direncler/VMS-R047-1-0-U/536795</t>
+  </si>
+  <si>
+    <t>47m Sense Resistor 4W</t>
   </si>
   <si>
     <r>
@@ -121,8 +199,8 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
--480R (min 2W) x1
--0.05R (5W sense)x1
+-480R (min 2W) x1 Kalsın şimdilik 1k seçeceğiz
+-0.05R (5W sense)x1 
 -10k x5 (x1 %1 tolerance for controller)
 -1k x1
 -600k x1
@@ -134,15 +212,6 @@
 -4.7k x1
 -5k x1</t>
     </r>
-  </si>
-  <si>
-    <t>30V Zener</t>
-  </si>
-  <si>
-    <t>15V Zener (Depending on max switch voltage)</t>
-  </si>
-  <si>
-    <t>2N2222 x2</t>
   </si>
 </sst>
 </file>
@@ -249,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -261,6 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -391,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B831FA0-2FF9-4170-BC4D-1B3E0F7BB767}" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B831FA0-2FF9-4170-BC4D-1B3E0F7BB767}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4DB572EA-B97E-43B7-8E61-6CC55990BA4F}" name="Component" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{03E7016A-1F49-4A13-8941-D150A9A2F6CF}" name="Price" dataDxfId="3"/>
@@ -700,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E520E67-1D27-4A68-9886-D4EF86CBEAFA}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,7 +830,7 @@
     </row>
     <row r="4" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -771,63 +841,144 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{B2B197F7-B723-4767-8FE3-BB13551641B6}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{7D50748C-81DF-4AF5-BE75-9E1FBF073886}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{6B657A83-BD45-407D-8C46-CCFAC6ABD1F2}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{931391FE-2493-4D41-9D9A-CB2AC8A2E7EF}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{ACB79ED0-7A44-4B9B-B9C2-1A4CDF9482D2}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{D1B8B35A-5104-41AC-84B4-59AE700C7DF8}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{BA19392D-52DE-438F-B1DF-611969A140A8}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{E8102777-57D3-4906-8ADE-02234FEDE441}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Component_List.xlsx
+++ b/Component_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Optimus-Primary-Winding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F925D8-F0DD-43B9-882F-5ACADC762B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E825D4-9F42-4306-8B75-9EEF590F1B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
   </bookViews>
@@ -200,11 +200,11 @@
       </rPr>
       <t xml:space="preserve">
 -480R (min 2W) x1 Kalsın şimdilik 1k seçeceğiz
--0.05R (5W sense)x1 
+-0.05R (5W sense)x1 aşağıda yazdım
 -10k x5 (x1 %1 tolerance for controller)
 -1k x1
 -600k x1
--182k x1 (%1 tolerance)
+-182k x1 (%1 tolerance172k +1k olabilir)
 -14.3k x1
 -22.2k x2
 -10R x1
@@ -773,7 +773,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Component_List.xlsx
+++ b/Component_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Optimus-Primary-Winding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E825D4-9F42-4306-8B75-9EEF590F1B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A969197-E772-4699-BCCE-7DA4F28BF42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Component</t>
   </si>
@@ -212,6 +212,42 @@
 -4.7k x1
 -5k x1</t>
     </r>
+  </si>
+  <si>
+    <t>MOSFET DIS.17A 55V N-CH TO252(DPAK) HEXFET SMT</t>
+  </si>
+  <si>
+    <t>55V 17A MOSFET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0,41515 USD</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/guc-yari-iletkenleri/mosfetler/discrete-mosfetler/IRFR024NTRPBF/372863</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 10A 150V TO220AC THT</t>
+  </si>
+  <si>
+    <t>150V 10A Schottky Diode</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/guc-yari-iletkenleri/diyotlar-modul-diyotlar-ve-dogrultucular/schottky-diyotlar/MBR10150T000001/573568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0,47311 USD</t>
+  </si>
+  <si>
+    <t>DIODE STAND. Single 1A 100V THT DO41</t>
+  </si>
+  <si>
+    <t>100V 1A Diode</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/guc-yari-iletkenleri/diyotlar-modul-diyotlar-ve-dogrultucular/genel-amacli-diyotlar/1N4002/735859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0,02037 USD</t>
   </si>
 </sst>
 </file>
@@ -461,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B831FA0-2FF9-4170-BC4D-1B3E0F7BB767}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B831FA0-2FF9-4170-BC4D-1B3E0F7BB767}" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4DB572EA-B97E-43B7-8E61-6CC55990BA4F}" name="Component" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{03E7016A-1F49-4A13-8941-D150A9A2F6CF}" name="Price" dataDxfId="3"/>
@@ -770,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E520E67-1D27-4A68-9886-D4EF86CBEAFA}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,6 +999,57 @@
         <v>36</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -974,11 +1061,14 @@
     <hyperlink ref="C5" r:id="rId6" xr:uid="{D1B8B35A-5104-41AC-84B4-59AE700C7DF8}"/>
     <hyperlink ref="C6" r:id="rId7" xr:uid="{BA19392D-52DE-438F-B1DF-611969A140A8}"/>
     <hyperlink ref="C12" r:id="rId8" xr:uid="{E8102777-57D3-4906-8ADE-02234FEDE441}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{8B5D96BA-85FD-42CD-9C24-0643C8E1C474}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{6EA39D5E-79D6-4292-B14E-B73FDD19C9B0}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{FEA88C98-0AF0-4A23-AB2E-B86572892D5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Component_List.xlsx
+++ b/Component_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Optimus-Primary-Winding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A969197-E772-4699-BCCE-7DA4F28BF42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2D9EE5-B475-44DE-8D4F-D71EEA44326B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Component</t>
   </si>
@@ -60,6 +60,159 @@
   </si>
   <si>
     <t>FERRITE CORE</t>
+  </si>
+  <si>
+    <t>TL431</t>
+  </si>
+  <si>
+    <t>IC-4N25 OPTO 5300V TRANS.OUTPUT SMD6 LITEON</t>
+  </si>
+  <si>
+    <t>0,17620 USD</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/optolar-ve-sensorler/optolar/transistor-cikisli-optokuplorler/4N25S-TA1/434368</t>
+  </si>
+  <si>
+    <t>4N25 Optocoupler</t>
+  </si>
+  <si>
+    <t>https://www.direnc.net/2n2222-transistor-bjt-npn-to-92</t>
+  </si>
+  <si>
+    <t>2N2222 Transistör BJT TO-92 - NPN 6V 0.8A</t>
+  </si>
+  <si>
+    <t>0,99 TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIODE ZENER 300mW 15V SOD323 </t>
+  </si>
+  <si>
+    <t>15V Zener (Voltage depends on Vds)</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/guc-yari-iletkenleri/diyotlar-modul-diyotlar-ve-dogrultucular/zener-diyotlar/MM3Z15VT1G/625608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0,03367 USD</t>
+  </si>
+  <si>
+    <t>DIODE ZENER 500mW 30V ±5% SOD123 SMT</t>
+  </si>
+  <si>
+    <t>30V Zener (For Linear Regulator)</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/guc-yari-iletkenleri/diyotlar-modul-diyotlar-ve-dogrultucular/zener-diyotlar/MMSZ4713-VR100001/563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0,05405 USD</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/entegre-devreler-ics/guc-entegreleri/voltage-reference-entegreleri/TL431AIDBZR/341981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0,18929 USD</t>
+  </si>
+  <si>
+    <t>Precision Programmable Reference</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/entegre-devreler-ics/guc-entegreleri/dc-dc-voltaj-kontrolorleri/UC3843AD8TR/461759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC-3843 REG. CONTROLLER PWM CM SOIC8 </t>
+  </si>
+  <si>
+    <t>PWM Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,06870 USD </t>
+  </si>
+  <si>
+    <t>MOSFET DIS.17A 55V N-CH TO252(DPAK) HEXFET SMT</t>
+  </si>
+  <si>
+    <t>55V 17A MOSFET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0,41515 USD</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/guc-yari-iletkenleri/mosfetler/discrete-mosfetler/IRFR024NTRPBF/372863</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 10A 150V TO220AC THT</t>
+  </si>
+  <si>
+    <t>150V 10A Schottky Diode</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/guc-yari-iletkenleri/diyotlar-modul-diyotlar-ve-dogrultucular/schottky-diyotlar/MBR10150T000001/573568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0,47311 USD</t>
+  </si>
+  <si>
+    <t>DIODE STAND. Single 1A 100V THT DO41</t>
+  </si>
+  <si>
+    <t>100V 1A Diode</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/guc-yari-iletkenleri/diyotlar-modul-diyotlar-ve-dogrultucular/genel-amacli-diyotlar/1N4002/735859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0,02037 USD</t>
+  </si>
+  <si>
+    <t>RES.SHUNT (6432) 2512 150m Ohms 1% 4W AUTO SMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		0,80546 USD</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/pasif-komponentler/direncler/hassas-ve-sont-direncler/VMS-R150-1-0-U/536802</t>
+  </si>
+  <si>
+    <t>150m Sense Resistor 4W</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resistor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-2.2k 1W x2
+-100R 1W x1
+-47R 1W x1
+-150m (4W) x3 (aşağıda yazdım)
+-10R x1
+-1k x1
+-22k x3
+-4.7k x2
+-10k x3
+-100k x1 + 82k x1 (%1 olursa iyi olur)
+-820k x1</t>
+    </r>
   </si>
   <si>
     <r>
@@ -84,170 +237,30 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- 1u x3 (25V for input x1)
--1n x3
--2n x1
--330n(50V) x1
--330p(150V) x1
--47u or 68u (63V for output) x1</t>
+-1u 25V x1
+-220n 63V x1
+-1uF x2
+-100pF x1
+-4.7nF 63V x1
+-470pF x1
+-2.2nF x1
+-1nF x1
+-270pF 1000V x1 (150V yok mecbur 1000)
+-47uF 100V x1
+</t>
     </r>
   </si>
   <si>
-    <t>TL431</t>
-  </si>
-  <si>
-    <t>IC-4N25 OPTO 5300V TRANS.OUTPUT SMD6 LITEON</t>
-  </si>
-  <si>
-    <t>0,17620 USD</t>
-  </si>
-  <si>
-    <t>https://ozdisan.com/optolar-ve-sensorler/optolar/transistor-cikisli-optokuplorler/4N25S-TA1/434368</t>
-  </si>
-  <si>
-    <t>4N25 Optocoupler</t>
-  </si>
-  <si>
-    <t>https://www.direnc.net/2n2222-transistor-bjt-npn-to-92</t>
-  </si>
-  <si>
-    <t>2N2222 Transistör BJT TO-92 - NPN 6V 0.8A</t>
-  </si>
-  <si>
-    <t>0,99 TL</t>
-  </si>
-  <si>
-    <t>Fuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIODE ZENER 300mW 15V SOD323 </t>
-  </si>
-  <si>
-    <t>15V Zener (Voltage depends on Vds)</t>
-  </si>
-  <si>
-    <t>https://ozdisan.com/guc-yari-iletkenleri/diyotlar-modul-diyotlar-ve-dogrultucular/zener-diyotlar/MM3Z15VT1G/625608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	0,03367 USD</t>
-  </si>
-  <si>
-    <t>DIODE ZENER 500mW 30V ±5% SOD123 SMT</t>
-  </si>
-  <si>
-    <t>30V Zener (For Linear Regulator)</t>
-  </si>
-  <si>
-    <t>https://ozdisan.com/guc-yari-iletkenleri/diyotlar-modul-diyotlar-ve-dogrultucular/zener-diyotlar/MMSZ4713-VR100001/563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	0,05405 USD</t>
-  </si>
-  <si>
-    <t>https://ozdisan.com/entegre-devreler-ics/guc-entegreleri/voltage-reference-entegreleri/TL431AIDBZR/341981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	0,18929 USD</t>
-  </si>
-  <si>
-    <t>Precision Programmable Reference</t>
-  </si>
-  <si>
-    <t>https://ozdisan.com/entegre-devreler-ics/guc-entegreleri/dc-dc-voltaj-kontrolorleri/UC3843AD8TR/461759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC-3843 REG. CONTROLLER PWM CM SOIC8 </t>
-  </si>
-  <si>
-    <t>PWM Controller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,06870 USD </t>
-  </si>
-  <si>
-    <t>RES.SHUNT (6432) 2512 47m Ohms 1% 4W AUTO SMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	0,80477 USD</t>
-  </si>
-  <si>
-    <t>https://ozdisan.com/pasif-komponentler/direncler/hassas-ve-sont-direncler/VMS-R047-1-0-U/536795</t>
-  </si>
-  <si>
-    <t>47m Sense Resistor 4W</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Resistor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--480R (min 2W) x1 Kalsın şimdilik 1k seçeceğiz
--0.05R (5W sense)x1 aşağıda yazdım
--10k x5 (x1 %1 tolerance for controller)
--1k x1
--600k x1
--182k x1 (%1 tolerance172k +1k olabilir)
--14.3k x1
--22.2k x2
--10R x1
--100R x1
--4.7k x1
--5k x1</t>
-    </r>
-  </si>
-  <si>
-    <t>MOSFET DIS.17A 55V N-CH TO252(DPAK) HEXFET SMT</t>
-  </si>
-  <si>
-    <t>55V 17A MOSFET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	0,41515 USD</t>
-  </si>
-  <si>
-    <t>https://ozdisan.com/guc-yari-iletkenleri/mosfetler/discrete-mosfetler/IRFR024NTRPBF/372863</t>
-  </si>
-  <si>
-    <t>DIODE SCHOTTKY 10A 150V TO220AC THT</t>
-  </si>
-  <si>
-    <t>150V 10A Schottky Diode</t>
-  </si>
-  <si>
-    <t>https://ozdisan.com/guc-yari-iletkenleri/diyotlar-modul-diyotlar-ve-dogrultucular/schottky-diyotlar/MBR10150T000001/573568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	0,47311 USD</t>
-  </si>
-  <si>
-    <t>DIODE STAND. Single 1A 100V THT DO41</t>
-  </si>
-  <si>
-    <t>100V 1A Diode</t>
-  </si>
-  <si>
-    <t>https://ozdisan.com/guc-yari-iletkenleri/diyotlar-modul-diyotlar-ve-dogrultucular/genel-amacli-diyotlar/1N4002/735859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	0,02037 USD</t>
+    <t>25A Fuse</t>
+  </si>
+  <si>
+    <t>https://www.direnc.net/25a-ufak-cam-sigorta-20mm</t>
+  </si>
+  <si>
+    <t>0,54 TL</t>
+  </si>
+  <si>
+    <t>25A 5x20mm Cam Sigorta</t>
   </si>
 </sst>
 </file>
@@ -809,7 +822,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,18 +868,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -875,81 +888,81 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -958,96 +971,104 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D12" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1060,15 +1081,16 @@
     <hyperlink ref="C7" r:id="rId5" xr:uid="{ACB79ED0-7A44-4B9B-B9C2-1A4CDF9482D2}"/>
     <hyperlink ref="C5" r:id="rId6" xr:uid="{D1B8B35A-5104-41AC-84B4-59AE700C7DF8}"/>
     <hyperlink ref="C6" r:id="rId7" xr:uid="{BA19392D-52DE-438F-B1DF-611969A140A8}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{E8102777-57D3-4906-8ADE-02234FEDE441}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{8B5D96BA-85FD-42CD-9C24-0643C8E1C474}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{6EA39D5E-79D6-4292-B14E-B73FDD19C9B0}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{FEA88C98-0AF0-4A23-AB2E-B86572892D5C}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{8B5D96BA-85FD-42CD-9C24-0643C8E1C474}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{6EA39D5E-79D6-4292-B14E-B73FDD19C9B0}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{FEA88C98-0AF0-4A23-AB2E-B86572892D5C}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{1FF546A1-4934-409C-B256-115BFD2524FA}"/>
+    <hyperlink ref="C11" r:id="rId12" xr:uid="{6AEEFA12-132A-4BC1-9150-B762C964078C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Component_List.xlsx
+++ b/Component_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Optimus-Primary-Winding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2D9EE5-B475-44DE-8D4F-D71EEA44326B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8653E4-F87B-488B-AD80-A83D922D2738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
   </bookViews>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E520E67-1D27-4A68-9886-D4EF86CBEAFA}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Component_List.xlsx
+++ b/Component_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Optimus-Primary-Winding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8653E4-F87B-488B-AD80-A83D922D2738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD17A04-9F1E-41B6-85A6-A5E3A77148A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
   </bookViews>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E520E67-1D27-4A68-9886-D4EF86CBEAFA}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Component_List.xlsx
+++ b/Component_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Optimus-Primary-Winding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD17A04-9F1E-41B6-85A6-A5E3A77148A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5935DD-3311-45B2-8A83-52E2297E98BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Component</t>
   </si>
@@ -129,18 +129,6 @@
   </si>
   <si>
     <t xml:space="preserve">1,06870 USD </t>
-  </si>
-  <si>
-    <t>MOSFET DIS.17A 55V N-CH TO252(DPAK) HEXFET SMT</t>
-  </si>
-  <si>
-    <t>55V 17A MOSFET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	0,41515 USD</t>
-  </si>
-  <si>
-    <t>https://ozdisan.com/guc-yari-iletkenleri/mosfetler/discrete-mosfetler/IRFR024NTRPBF/372863</t>
   </si>
   <si>
     <t>DIODE SCHOTTKY 10A 150V TO220AC THT</t>
@@ -261,6 +249,21 @@
   </si>
   <si>
     <t>25A 5x20mm Cam Sigorta</t>
+  </si>
+  <si>
+    <t>2n2222 BJT</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/guc-yari-iletkenleri/mosfetler/discrete-mosfetler/IRFR3410TRLPBF/443366</t>
+  </si>
+  <si>
+    <t>0,60306 USD</t>
+  </si>
+  <si>
+    <t>100V 31A MOSFET</t>
+  </si>
+  <si>
+    <t>MOSFET DIS.31A 100V N-CH TO252(DPAK) HEXFET SMT</t>
   </si>
 </sst>
 </file>
@@ -821,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E520E67-1D27-4A68-9886-D4EF86CBEAFA}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,7 +873,7 @@
     </row>
     <row r="3" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -879,7 +882,7 @@
     </row>
     <row r="4" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -967,7 +970,9 @@
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -988,87 +993,87 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Component_List.xlsx
+++ b/Component_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Optimus-Primary-Winding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5935DD-3311-45B2-8A83-52E2297E98BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0ABAFF-BB63-4C8F-BFE9-6611A7D20D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
   </bookViews>
@@ -308,12 +308,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -370,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -383,6 +389,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -822,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E520E67-1D27-4A68-9886-D4EF86CBEAFA}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,7 +844,7 @@
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -854,7 +861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -871,7 +878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>44</v>
       </c>
@@ -880,7 +887,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
@@ -888,8 +895,9 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -905,8 +913,9 @@
       <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -922,8 +931,9 @@
       <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -939,8 +949,9 @@
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -956,8 +967,9 @@
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -973,8 +985,9 @@
       <c r="E9" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1003,9 @@
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1007,8 +1021,9 @@
       <c r="E11" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
@@ -1024,8 +1039,9 @@
       <c r="E12" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1041,8 +1057,9 @@
       <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1058,8 +1075,9 @@
       <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1075,6 +1093,7 @@
       <c r="E15" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="F15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Component_List.xlsx
+++ b/Component_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Optimus-Primary-Winding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0ABAFF-BB63-4C8F-BFE9-6611A7D20D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D665B9-D65C-41C5-9075-C21CE6543D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
   </bookViews>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E520E67-1D27-4A68-9886-D4EF86CBEAFA}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Component_List.xlsx
+++ b/Component_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Optimus-Primary-Winding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D665B9-D65C-41C5-9075-C21CE6543D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E64B29-176B-4F97-8F68-A691FD50BE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
   </bookViews>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E520E67-1D27-4A68-9886-D4EF86CBEAFA}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Component_List.xlsx
+++ b/Component_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Optimus-Primary-Winding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E64B29-176B-4F97-8F68-A691FD50BE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEE8B98-EF1A-4665-B77E-758AAFFFEDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
   </bookViews>
@@ -167,6 +167,67 @@
     <t>150m Sense Resistor 4W</t>
   </si>
   <si>
+    <t>25A Fuse</t>
+  </si>
+  <si>
+    <t>https://www.direnc.net/25a-ufak-cam-sigorta-20mm</t>
+  </si>
+  <si>
+    <t>0,54 TL</t>
+  </si>
+  <si>
+    <t>25A 5x20mm Cam Sigorta</t>
+  </si>
+  <si>
+    <t>2n2222 BJT</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/guc-yari-iletkenleri/mosfetler/discrete-mosfetler/IRFR3410TRLPBF/443366</t>
+  </si>
+  <si>
+    <t>0,60306 USD</t>
+  </si>
+  <si>
+    <t>100V 31A MOSFET</t>
+  </si>
+  <si>
+    <t>MOSFET DIS.31A 100V N-CH TO252(DPAK) HEXFET SMT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Caps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-1u 25V x3 (Bypass)
+-220n 100V x1 (Snubber)
+-100pF x1 (Control)
+-4.7nF 63V x1  (Snubber)
+-2.2nF x1 (Control)
+-470pF x1 (Control)
+-1nF x1 (Control)
+-47uF 100V x1
+</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -189,81 +250,18 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
--2.2k 1W x2
--100R 1W x1
--47R 1W x1
+-1k 2W x2 (Snubber)
+-47R 1W x1 (Snubber)
 -150m (4W) x3 (aşağıda yazdım)
--10R x1
--1k x1
--22k x3
--4.7k x2
--10k x3
--100k x1 + 82k x1 (%1 olursa iyi olur)
--820k x1</t>
+-10R x1 (Gate)
+-1k x1 (Control)
+-22k x3 (Control)
+-4.7k x1 (Control)
+-10k x3 (Control)
+-100k x1 + 82k x1 (%1 olursa iyi olur) (Control)
+-820k x1 (Control)
+-12k x1 (Control)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Caps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--1u 25V x1
--220n 63V x1
--1uF x2
--100pF x1
--4.7nF 63V x1
--470pF x1
--2.2nF x1
--1nF x1
--270pF 1000V x1 (150V yok mecbur 1000)
--47uF 100V x1
-</t>
-    </r>
-  </si>
-  <si>
-    <t>25A Fuse</t>
-  </si>
-  <si>
-    <t>https://www.direnc.net/25a-ufak-cam-sigorta-20mm</t>
-  </si>
-  <si>
-    <t>0,54 TL</t>
-  </si>
-  <si>
-    <t>25A 5x20mm Cam Sigorta</t>
-  </si>
-  <si>
-    <t>2n2222 BJT</t>
-  </si>
-  <si>
-    <t>https://ozdisan.com/guc-yari-iletkenleri/mosfetler/discrete-mosfetler/IRFR3410TRLPBF/443366</t>
-  </si>
-  <si>
-    <t>0,60306 USD</t>
-  </si>
-  <si>
-    <t>100V 31A MOSFET</t>
-  </si>
-  <si>
-    <t>MOSFET DIS.31A 100V N-CH TO252(DPAK) HEXFET SMT</t>
   </si>
 </sst>
 </file>
@@ -831,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E520E67-1D27-4A68-9886-D4EF86CBEAFA}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,9 +876,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -889,7 +887,7 @@
     </row>
     <row r="4" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -983,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="8"/>
     </row>
@@ -1007,19 +1005,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1043,19 +1041,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13" s="8"/>
     </row>

--- a/Component_List.xlsx
+++ b/Component_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Optimus-Primary-Winding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmetcan.akuz\Documents\GitHub\Optimus-Primary-Winding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E64B29-176B-4F97-8F68-A691FD50BE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668AEB56-D300-4F9A-9D7F-EF8B11AE0745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Component</t>
   </si>
@@ -265,13 +265,22 @@
   <si>
     <t>MOSFET DIS.31A 100V N-CH TO252(DPAK) HEXFET SMT</t>
   </si>
+  <si>
+    <t>Schematic available</t>
+  </si>
+  <si>
+    <t>MMSD4148</t>
+  </si>
+  <si>
+    <t>MM3Zxx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -380,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -829,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E520E67-1D27-4A68-9886-D4EF86CBEAFA}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,9 +851,10 @@
     <col min="3" max="3" width="70.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -861,7 +871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -878,7 +888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>44</v>
       </c>
@@ -887,7 +897,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
@@ -897,7 +907,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -914,8 +924,11 @@
         <v>26</v>
       </c>
       <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -932,8 +945,11 @@
         <v>29</v>
       </c>
       <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -950,8 +966,11 @@
         <v>21</v>
       </c>
       <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -968,8 +987,11 @@
         <v>17</v>
       </c>
       <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -987,7 +1009,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1004,8 +1026,11 @@
         <v>12</v>
       </c>
       <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1023,7 +1048,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
@@ -1041,7 +1066,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1059,7 +1084,7 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1077,7 +1102,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1124,7 +1149,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE980F8-1179-47A2-8A73-7F8907EE3048}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38C0712B-7D0D-4C3C-8A3F-C4615B048AD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/Component_List.xlsx
+++ b/Component_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmetcan.akuz\Documents\GitHub\Optimus-Primary-Winding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668AEB56-D300-4F9A-9D7F-EF8B11AE0745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5304FDC9-A40E-4752-AA99-B7F302848CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>Component</t>
   </si>
@@ -273,6 +273,15 @@
   </si>
   <si>
     <t>MM3Zxx</t>
+  </si>
+  <si>
+    <t>MBR735</t>
+  </si>
+  <si>
+    <t>UC3843AD8TR</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -385,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -399,12 +408,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -529,13 +562,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B831FA0-2FF9-4170-BC4D-1B3E0F7BB767}" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4DB572EA-B97E-43B7-8E61-6CC55990BA4F}" name="Component" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{03E7016A-1F49-4A13-8941-D150A9A2F6CF}" name="Price" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E8BBB6D5-A271-4EE5-9E12-10517E2AAB57}" name="Link" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{93423F97-D63E-476A-A983-A21D9463CE0C}" name="Qty." dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{AE2A6183-B4A1-42B1-9128-E2071196A4B4}" name="Description" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B831FA0-2FF9-4170-BC4D-1B3E0F7BB767}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4DB572EA-B97E-43B7-8E61-6CC55990BA4F}" name="Component" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{03E7016A-1F49-4A13-8941-D150A9A2F6CF}" name="Price" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{E8BBB6D5-A271-4EE5-9E12-10517E2AAB57}" name="Link" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{93423F97-D63E-476A-A983-A21D9463CE0C}" name="Qty." dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{AE2A6183-B4A1-42B1-9128-E2071196A4B4}" name="Description" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{BEB77967-4436-4979-AA74-8D64021CF5DD}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -840,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E520E67-1D27-4A68-9886-D4EF86CBEAFA}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,6 +885,7 @@
     <col min="3" max="3" width="70.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -870,6 +905,9 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -887,6 +925,7 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -896,6 +935,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -944,7 +984,9 @@
       <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="G6" t="s">
         <v>54</v>
       </c>
@@ -1101,6 +1143,9 @@
         <v>32</v>
       </c>
       <c r="F14" s="8"/>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -1118,7 +1163,10 @@
       <c r="E15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="10"/>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1149,7 +1197,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38C0712B-7D0D-4C3C-8A3F-C4615B048AD7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A757F92-F5B0-46FB-A2F2-1E288B77357C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/Component_List.xlsx
+++ b/Component_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmetcan.akuz\Documents\GitHub\Optimus-Primary-Winding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5304FDC9-A40E-4752-AA99-B7F302848CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF7334E-9384-406D-9E26-7B7D9AC906B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
+    <workbookView xWindow="7700" yWindow="3700" windowWidth="28800" windowHeight="15360" xr2:uid="{ABAF7D5C-48AB-41E3-A9CD-5B03435CF991}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
   <si>
     <t>Component</t>
   </si>
@@ -266,9 +266,6 @@
     <t>MOSFET DIS.31A 100V N-CH TO252(DPAK) HEXFET SMT</t>
   </si>
   <si>
-    <t>Schematic available</t>
-  </si>
-  <si>
     <t>MMSD4148</t>
   </si>
   <si>
@@ -282,6 +279,102 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>MBR10150_T0_00001</t>
+  </si>
+  <si>
+    <t>1N4002</t>
+  </si>
+  <si>
+    <t>KiCAD Available</t>
+  </si>
+  <si>
+    <t>MMSZ4713</t>
+  </si>
+  <si>
+    <t>1) 270pyerine 470pF 500v cap:  https://ozdisan.com/pasif-komponentler/kondansatorler/smt-smd-ve-mlcc-kondansatorler/CL31B471KGFNNNE/484778</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/pasif-komponentler/kondansatorler/smt-smd-ve-mlcc-kondansatorler/C5750X7R2A475K230KA/473761</t>
+  </si>
+  <si>
+    <t>4.7uF, 100V</t>
+  </si>
+  <si>
+    <t>470pF 500v</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/pasif-komponentler/kondansatorler/smt-smd-ve-mlcc-kondansatorler/CL31B471KGFNNNE/484778</t>
+  </si>
+  <si>
+    <t>10uF, 100V</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Pasif</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>100nF, 100V</t>
+  </si>
+  <si>
+    <t>10nF,100V</t>
+  </si>
+  <si>
+    <t>1uF, 100V</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/pasif-komponentler/kondansatorler/smt-smd-ve-mlcc-kondansatorler/AC0805KKX7R0BB104/750474</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/pasif-komponentler/kondansatorler/smt-smd-ve-mlcc-kondansatorler/CC1206KRX7R0BB103/750614</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/pasif-komponentler/kondansatorler/smt-smd-ve-mlcc-kondansatorler/CL21Y105KCFVPJE/634349</t>
+  </si>
+  <si>
+    <t>2.2nF, 50V</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/pasif-komponentler/kondansatorler/smt-smd-ve-mlcc-kondansatorler/CL21B222KBANNNC/16612</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/pasif-komponentler/kondansatorler/smt-smd-ve-mlcc-kondansatorler/CL21B471KBANNNC/10430</t>
+  </si>
+  <si>
+    <t>470p/0.47nF, 50V</t>
+  </si>
+  <si>
+    <t>4.7nF, 50V</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/pasif-komponentler/kondansatorler/smt-smd-ve-mlcc-kondansatorler/CL21B472KBANNNC/11154</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/pasif-komponentler/kondansatorler/smt-smd-ve-mlcc-kondansatorler/CC0805JRNPO9BN101/576598</t>
+  </si>
+  <si>
+    <t>100pF, 50V</t>
+  </si>
+  <si>
+    <t>220nF,100V</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/pasif-komponentler/kondansatorler/smt-smd-ve-mlcc-kondansatorler/CC0805KKX7R0BB224/617904</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/pasif-komponentler/kondansatorler/smt-smd-ve-mlcc-kondansatorler/CL21B102KC6WPNC/522755</t>
+  </si>
+  <si>
+    <t>1nF, 100V</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/pasif-komponentler/kondansatorler/smt-smd-ve-mlcc-kondansatorler/C5750X7S2A106M230KB/468524</t>
   </si>
 </sst>
 </file>
@@ -394,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -410,6 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -872,24 +966,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E520E67-1D27-4A68-9886-D4EF86CBEAFA}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="44.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="70.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -906,10 +1000,10 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -927,17 +1021,19 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
@@ -947,7 +1043,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -965,10 +1061,10 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -985,13 +1081,13 @@
         <v>29</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1007,12 +1103,14 @@
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="G7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1030,10 +1128,10 @@
       </c>
       <c r="F8" s="8"/>
       <c r="G8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,8 +1148,11 @@
         <v>49</v>
       </c>
       <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,10 +1170,10 @@
       </c>
       <c r="F10" s="8"/>
       <c r="G10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1090,7 +1191,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
@@ -1107,8 +1208,11 @@
         <v>42</v>
       </c>
       <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1126,7 +1230,7 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1142,12 +1246,14 @@
       <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="G14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1163,31 +1269,213 @@
       <c r="E15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{B2B197F7-B723-4767-8FE3-BB13551641B6}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{7D50748C-81DF-4AF5-BE75-9E1FBF073886}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{6B657A83-BD45-407D-8C46-CCFAC6ABD1F2}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{931391FE-2493-4D41-9D9A-CB2AC8A2E7EF}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{ACB79ED0-7A44-4B9B-B9C2-1A4CDF9482D2}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{D1B8B35A-5104-41AC-84B4-59AE700C7DF8}"/>
-    <hyperlink ref="C6" r:id="rId7" xr:uid="{BA19392D-52DE-438F-B1DF-611969A140A8}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{8B5D96BA-85FD-42CD-9C24-0643C8E1C474}"/>
-    <hyperlink ref="C14" r:id="rId9" xr:uid="{6EA39D5E-79D6-4292-B14E-B73FDD19C9B0}"/>
-    <hyperlink ref="C15" r:id="rId10" xr:uid="{FEA88C98-0AF0-4A23-AB2E-B86572892D5C}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{1FF546A1-4934-409C-B256-115BFD2524FA}"/>
-    <hyperlink ref="C11" r:id="rId12" xr:uid="{6AEEFA12-132A-4BC1-9150-B762C964078C}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{7D50748C-81DF-4AF5-BE75-9E1FBF073886}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{6B657A83-BD45-407D-8C46-CCFAC6ABD1F2}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{931391FE-2493-4D41-9D9A-CB2AC8A2E7EF}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{ACB79ED0-7A44-4B9B-B9C2-1A4CDF9482D2}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{D1B8B35A-5104-41AC-84B4-59AE700C7DF8}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{BA19392D-52DE-438F-B1DF-611969A140A8}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{8B5D96BA-85FD-42CD-9C24-0643C8E1C474}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{6EA39D5E-79D6-4292-B14E-B73FDD19C9B0}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{FEA88C98-0AF0-4A23-AB2E-B86572892D5C}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{1FF546A1-4934-409C-B256-115BFD2524FA}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{6AEEFA12-132A-4BC1-9150-B762C964078C}"/>
+    <hyperlink ref="C2" r:id="rId12" xr:uid="{B2B197F7-B723-4767-8FE3-BB13551641B6}"/>
+    <hyperlink ref="C30" r:id="rId13" xr:uid="{71482A83-2D6C-4E84-A0C0-3DE4EC2BAFB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1197,7 +1485,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A757F92-F5B0-46FB-A2F2-1E288B77357C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B156376F-655B-4392-A565-C2291DCC1383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
